--- a/lvbu/data/许可证信息-v2.xlsx
+++ b/lvbu/data/许可证信息-v2.xlsx
@@ -1,541 +1,475 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\License_Compatibility\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECB6BDC-245E-4718-B351-E12170CEAA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="150">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>full_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>identifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>FSF Free/Libre</t>
+  </si>
+  <si>
+    <t>OSI Approved</t>
   </si>
   <si>
     <t>Commercial use</t>
   </si>
   <si>
     <t>distribution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>modification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>patent use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>private use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>disclose source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>license and copyright notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Network use is distribution</t>
   </si>
   <si>
     <t>same license</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>state changes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>liability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>trademark use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>warranty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BSD Zero Clause License</t>
   </si>
   <si>
+    <t>0BSD</t>
+  </si>
+  <si>
+    <t>Permissive</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>permissions</t>
+  </si>
+  <si>
+    <t>not mentioned</t>
+  </si>
+  <si>
+    <t>limitations</t>
+  </si>
+  <si>
     <t>Academic Free License v3.0</t>
   </si>
   <si>
+    <t>AFL-3.0</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
     <t>GNU Affero General Public License v3.0</t>
   </si>
   <si>
+    <t>AGPL-3.0-only</t>
+  </si>
+  <si>
+    <t>Copyleft</t>
+  </si>
+  <si>
     <t>Apache License 2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache-2.0</t>
   </si>
   <si>
     <t>Artistic License 2.0</t>
   </si>
   <si>
+    <t>Artistic-2.0</t>
+  </si>
+  <si>
+    <t>Weaker Copyleft</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
     <t>BSD 2-Clause "Simplified" License</t>
   </si>
   <si>
+    <t>BSD-2-Clause</t>
+  </si>
+  <si>
+    <t>BSD 3-Clause "New" or "Revised" License</t>
+  </si>
+  <si>
+    <t>BSD-3-Clause</t>
+  </si>
+  <si>
     <t>BSD 3-Clause Clear License</t>
   </si>
   <si>
-    <t>BSD 3-Clause "New" or "Revised" License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>BSD-3-Clause-Clear</t>
   </si>
   <si>
     <t>BSD 4-Clause "Original" or "Old" License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSD-4-Clause</t>
   </si>
   <si>
     <t>Boost Software License 1.0</t>
   </si>
   <si>
+    <t>BSL-1.0</t>
+  </si>
+  <si>
+    <t>Creative Commons Zero v1.0 Universal</t>
+  </si>
+  <si>
+    <t>CC0-1.0</t>
+  </si>
+  <si>
+    <t>Public Domain</t>
+  </si>
+  <si>
     <t>Creative Commons Attribution 4.0 International</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC-BY-4.0</t>
   </si>
   <si>
     <t>Creative Commons Attribution Share Alike 4.0 International</t>
   </si>
   <si>
-    <t>Creative Commons Zero v1.0 Universal</t>
+    <t>CC-BY-SA-4.0</t>
+  </si>
+  <si>
+    <t>Common Development and Distribution License 1.0</t>
+  </si>
+  <si>
+    <t>CDDL-1.0</t>
+  </si>
+  <si>
+    <t>Weak Copyleft</t>
   </si>
   <si>
     <t>CeCILL Free Software License Agreement v2.1</t>
   </si>
   <si>
+    <t>CECILL-2.1</t>
+  </si>
+  <si>
+    <t>Common Public Attribution License 1.0</t>
+  </si>
+  <si>
+    <t>CPAL-1.0</t>
+  </si>
+  <si>
+    <t>Common Public License 1.0</t>
+  </si>
+  <si>
+    <t>CPL-1.0</t>
+  </si>
+  <si>
     <t>Educational Community License v2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECL-2.0</t>
+  </si>
+  <si>
+    <t>Eiffel Forum License v2.0</t>
+  </si>
+  <si>
+    <t>EFL-2.0</t>
   </si>
   <si>
     <t>Eclipse Public License 1.0</t>
   </si>
   <si>
+    <t>EPL-1.0</t>
+  </si>
+  <si>
     <t>Eclipse Public License 2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPL-2.0</t>
+  </si>
+  <si>
+    <t>EU DataGrid Software License</t>
+  </si>
+  <si>
+    <t>EUDatagrid</t>
   </si>
   <si>
     <t>European Union Public License 1.1</t>
   </si>
   <si>
+    <t>EUPL-1.1</t>
+  </si>
+  <si>
     <t>European Union Public License 1.2</t>
   </si>
   <si>
+    <t>EUPL-1.2</t>
+  </si>
+  <si>
     <t>GNU General Public License v2.0</t>
   </si>
   <si>
+    <t>GPL-2.0-only</t>
+  </si>
+  <si>
+    <t>GNU General Public License v2.0 or later</t>
+  </si>
+  <si>
+    <t>GPL-2.0-or-later</t>
+  </si>
+  <si>
     <t>GNU General Public License v3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPL-3.0-only</t>
+  </si>
+  <si>
+    <t>Historical Permission Notice and Disclaimer</t>
+  </si>
+  <si>
+    <t>HPND</t>
+  </si>
+  <si>
+    <t>Intel Open Source License</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>IBM Public License v1.0</t>
+  </si>
+  <si>
+    <t>IPL-1.0</t>
+  </si>
+  <si>
+    <t>ISC License</t>
+  </si>
+  <si>
+    <t>ISC</t>
   </si>
   <si>
     <t>GNU Lesser General Public License v2.1</t>
   </si>
   <si>
+    <t>LGPL-2.1-only</t>
+  </si>
+  <si>
+    <t>GNU Lesser General Public License v2.1 or later</t>
+  </si>
+  <si>
+    <t>LGPL-2.1-or-later</t>
+  </si>
+  <si>
     <t>GNU Lesser General Public License v3.0</t>
   </si>
   <si>
+    <t>LGPL-3.0-only</t>
+  </si>
+  <si>
+    <t>Lucent Public License v1.02</t>
+  </si>
+  <si>
+    <t>LPL-1.02</t>
+  </si>
+  <si>
     <t>LaTeX Project Public License v1.3c</t>
   </si>
   <si>
+    <t>LPPL-1.3c</t>
+  </si>
+  <si>
+    <t>MIT License</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
     <t>MIT No Attribution</t>
   </si>
   <si>
-    <t>MIT License</t>
+    <t>MIT-0</t>
   </si>
   <si>
     <t>Mozilla Public License 2.0</t>
   </si>
   <si>
+    <t>MPL-2.0</t>
+  </si>
+  <si>
     <t>Microsoft Public License</t>
   </si>
   <si>
+    <t>MS-PL</t>
+  </si>
+  <si>
     <t>Microsoft Reciprocal License</t>
   </si>
   <si>
+    <t>MS-RL</t>
+  </si>
+  <si>
     <t>Mulan Permissive Software License, Version 2</t>
   </si>
   <si>
+    <t>MulanPSL-2.0</t>
+  </si>
+  <si>
     <t>University of Illinois/NCSA Open Source License</t>
   </si>
   <si>
+    <t>NCSA</t>
+  </si>
+  <si>
+    <t>Nokia Open Source License</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
     <t>Open Data Commons Open Database License v1.0</t>
   </si>
   <si>
+    <t>ODbL-1.0</t>
+  </si>
+  <si>
     <t>SIL Open Font License 1.1</t>
   </si>
   <si>
+    <t>OFL-1.1</t>
+  </si>
+  <si>
     <t>Open Software License 3.0</t>
   </si>
   <si>
+    <t>OSL-3.0</t>
+  </si>
+  <si>
+    <t>PHP License v3.01</t>
+  </si>
+  <si>
+    <t>PHP-3.01</t>
+  </si>
+  <si>
     <t>PostgreSQL License</t>
   </si>
   <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>RealNetworks Public Source License v1.0</t>
+  </si>
+  <si>
+    <t>RPSL-1.0</t>
+  </si>
+  <si>
+    <t>Sun Industry Standards Source License v1.1</t>
+  </si>
+  <si>
+    <t>SISSL</t>
+  </si>
+  <si>
+    <t>Sleepycat License</t>
+  </si>
+  <si>
+    <t>Sleepycat</t>
+  </si>
+  <si>
+    <t>Sun Public License v1.0</t>
+  </si>
+  <si>
+    <t>SPL-1.0</t>
+  </si>
+  <si>
     <t>The Unlicense</t>
   </si>
   <si>
+    <t>Unlicense</t>
+  </si>
+  <si>
     <t>Universal Permissive License v1.0</t>
   </si>
   <si>
+    <t>UPL-1.0</t>
+  </si>
+  <si>
     <t>Vim License</t>
   </si>
   <si>
+    <t>Vim</t>
+  </si>
+  <si>
     <t>Do What The F*ck You Want To Public License</t>
   </si>
   <si>
+    <t>WTFPL</t>
+  </si>
+  <si>
     <t>zlib License</t>
   </si>
   <si>
-    <t>permissions</t>
-  </si>
-  <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>limitations</t>
-  </si>
-  <si>
-    <t>not mentioned</t>
-  </si>
-  <si>
-    <t>AFL-3.0</t>
-  </si>
-  <si>
-    <t>Apache-2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Artistic-2.0</t>
-  </si>
-  <si>
-    <t>BSD-2-Clause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSD-3-Clause-Clear</t>
-  </si>
-  <si>
-    <t>BSD-3-Clause</t>
-  </si>
-  <si>
-    <t>BSD-4-Clause</t>
-  </si>
-  <si>
-    <t>BSL-1.0</t>
-  </si>
-  <si>
-    <t>CC-BY-4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0-1.0</t>
-  </si>
-  <si>
-    <t>CECILL-2.1</t>
-  </si>
-  <si>
-    <t>ECL-2.0</t>
-  </si>
-  <si>
-    <t>EPL-1.0</t>
-  </si>
-  <si>
-    <t>EPL-2.0</t>
-  </si>
-  <si>
-    <t>EUPL-1.1</t>
-  </si>
-  <si>
-    <t>ISC License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LPPL-1.3c</t>
-  </si>
-  <si>
-    <t>MIT-0</t>
-  </si>
-  <si>
-    <t>MIT</t>
-  </si>
-  <si>
-    <t>MPL-2.0</t>
-  </si>
-  <si>
-    <t>MS-PL</t>
-  </si>
-  <si>
-    <t>MS-RL</t>
-  </si>
-  <si>
-    <t>MulanPSL-2.0</t>
-  </si>
-  <si>
-    <t>ODbL-1.0</t>
-  </si>
-  <si>
-    <t>NCSA</t>
-  </si>
-  <si>
-    <t>OFL-1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSL-3.0</t>
-  </si>
-  <si>
-    <t>PostgreSQL</t>
-  </si>
-  <si>
-    <t>Vim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPL-1.0</t>
-  </si>
-  <si>
     <t>Zlib</t>
   </si>
   <si>
-    <t>OSI Approved</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0BSD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSF Free/Libre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPL-2.0-only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPL-3.0-only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GNU General Public License v2.0 or later</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPL-2.0-or-later</t>
-  </si>
-  <si>
-    <t>LGPL-2.1-only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGPL-3.0-only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GNU Lesser General Public License v2.1 or later</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGPL-2.1-or-later</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Permissive</t>
-  </si>
-  <si>
-    <t>Permissive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Public Domain</t>
-  </si>
-  <si>
-    <t>Copyleft</t>
-  </si>
-  <si>
-    <t>Copyleft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weaker Copyleft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weak Copyleft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC-BY-SA-4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlicense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WTFPL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common Development and Distribution License 1.0</t>
-  </si>
-  <si>
-    <t>CDDL-1.0</t>
-  </si>
-  <si>
-    <t>permissions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not mentioned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limitations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common Public Attribution License 1.0</t>
-  </si>
-  <si>
-    <t>CPAL-1.0</t>
-  </si>
-  <si>
-    <t>Common Public License 1.0</t>
-  </si>
-  <si>
-    <t>CPL-1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eiffel Forum License v2.0</t>
-  </si>
-  <si>
-    <t>EFL-2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU DataGrid Software License</t>
-  </si>
-  <si>
-    <t>EUDatagrid</t>
-  </si>
-  <si>
-    <t>Historical Permission Notice and Disclaimer</t>
-  </si>
-  <si>
-    <t>HPND</t>
-  </si>
-  <si>
-    <t>Intel Open Source License</t>
-  </si>
-  <si>
-    <t>Intel</t>
-  </si>
-  <si>
-    <t>IBM Public License v1.0</t>
-  </si>
-  <si>
-    <t>IPL-1.0</t>
-  </si>
-  <si>
-    <t>Lucent Public License v1.02</t>
-  </si>
-  <si>
-    <t>LPL-1.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nokia Open Source License</t>
-  </si>
-  <si>
-    <t>Nokia</t>
-  </si>
-  <si>
-    <t>PHP License v3.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHP-3.01</t>
-  </si>
-  <si>
-    <t>RealNetworks Public Source License v1.0</t>
-  </si>
-  <si>
-    <t>RPSL-1.0</t>
-  </si>
-  <si>
-    <t>Sun Industry Standards Source License v1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SISSL</t>
-  </si>
-  <si>
-    <t>Sleepycat License</t>
-  </si>
-  <si>
-    <t>Sleepycat</t>
-  </si>
-  <si>
-    <t>Sun Public License v1.0</t>
-  </si>
-  <si>
-    <t>SPL-1.0</t>
-  </si>
-  <si>
     <t>Zope Public License 2.0</t>
   </si>
   <si>
@@ -546,33 +480,23 @@
   </si>
   <si>
     <t>ZPL-2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUPL-1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGPL-3.0-only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -580,20 +504,356 @@
       <sz val="11"/>
       <color rgb="FF58595B"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -601,34 +861,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -677,7 +1223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -712,7 +1258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -886,3588 +1432,3584 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A43" sqref="$A43:$XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="9.125" style="1"/>
+    <col min="2" max="2" width="9.12962962962963" style="2"/>
     <col min="3" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="17.3796296296296" customWidth="1"/>
+    <col min="7" max="7" width="11.1296296296296" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="16" width="9.125" customWidth="1"/>
+    <col min="10" max="16" width="9.12962962962963" customWidth="1"/>
     <col min="18" max="18" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="55.2" spans="1:19">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="41.4" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="55.2" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="82.8" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="41.4" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="41.4" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q6" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="69" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>106</v>
-      </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="69" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R8" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" ht="55.2" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="69" spans="1:19">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="55.2" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="69" spans="1:19">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="96.6" spans="1:19">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M13" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q13" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="110.4" spans="1:19">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N14" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O14" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P14" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="96.6" spans="1:19">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>121</v>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="82.8" spans="1:19">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M16" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N16" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P16" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q16" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R16" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="69" spans="1:19">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>122</v>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>121</v>
+        <v>22</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="55.2" spans="1:19">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>124</v>
+      <c r="B18" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" ht="69" spans="1:19">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N19" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q19" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R19" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" ht="55.2" spans="1:19">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>126</v>
+      <c r="B20" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N20" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P20" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="s">
-        <v>58</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" ht="55.2" spans="1:19">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="55.2" spans="1:19">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="55.2" spans="1:19">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>25</v>
+      </c>
+      <c r="R23" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" ht="69" spans="1:19">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" t="s">
-        <v>57</v>
-      </c>
-      <c r="N21" t="s">
-        <v>59</v>
-      </c>
-      <c r="O21" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>58</v>
-      </c>
-      <c r="R21" t="s">
-        <v>59</v>
-      </c>
-      <c r="S21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="57" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N22" t="s">
-        <v>59</v>
-      </c>
-      <c r="O22" t="s">
-        <v>57</v>
-      </c>
-      <c r="P22" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>58</v>
-      </c>
-      <c r="R22" t="s">
-        <v>59</v>
-      </c>
-      <c r="S22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="57" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" t="s">
-        <v>57</v>
-      </c>
-      <c r="N23" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" t="s">
-        <v>59</v>
-      </c>
-      <c r="P23" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>58</v>
-      </c>
-      <c r="R23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" t="s">
-        <v>109</v>
-      </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M24" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N24" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O24" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P24" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q24" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R24" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="69" spans="1:19">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>34</v>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M25" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O25" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P25" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q25" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R25" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="69" spans="1:19">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M26" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N26" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O26" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P26" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q26" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R26" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="82.8" spans="1:19">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>98</v>
+      <c r="B27" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M27" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N27" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O27" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P27" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q27" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R27" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" ht="69" spans="1:19">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>36</v>
+      <c r="B28" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M28" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N28" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O28" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P28" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q28" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R28" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" ht="82.8" spans="1:19">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>130</v>
+      <c r="B29" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M29" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N29" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q29" t="s">
-        <v>58</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" ht="55.2" spans="1:19">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>132</v>
+      <c r="B30" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M30" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N30" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R30" t="s">
-        <v>58</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" ht="55.2" spans="1:19">
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>134</v>
+      <c r="B31" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>56</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="N31" t="s">
-        <v>59</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>119</v>
+        <v>24</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="P31" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q31" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R31" t="s">
-        <v>58</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" ht="27.6" spans="1:19">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>75</v>
+      <c r="B32" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M32" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N32" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P32" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q32" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R32" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" ht="82.8" spans="1:19">
       <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>37</v>
+      <c r="B33" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L33" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M33" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N33" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O33" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P33" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q33" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R33" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" ht="96.6" spans="1:19">
       <c r="A34">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>102</v>
+      <c r="B34" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L34" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M34" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N34" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O34" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P34" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q34" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R34" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" ht="82.8" spans="1:19">
       <c r="A35">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>38</v>
+      <c r="B35" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L35" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M35" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N35" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O35" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P35" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q35" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R35" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="55.2" spans="1:19">
       <c r="A36">
         <v>36</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>136</v>
+      <c r="B36" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="N36" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P36" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q36" t="s">
-        <v>58</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" ht="69" spans="1:19">
       <c r="A37">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>39</v>
+      <c r="B37" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L37" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M37" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N37" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P37" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q37" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R37" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" ht="27.6" spans="1:19">
       <c r="A38">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>41</v>
+      <c r="B38" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L38" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M38" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N38" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O38" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P38" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q38" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R38" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" ht="41.4" spans="1:19">
       <c r="A39">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>40</v>
+      <c r="B39" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K39" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L39" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M39" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="N39" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P39" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q39" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R39" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" ht="55.2" spans="1:19">
       <c r="A40">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>42</v>
+      <c r="B40" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L40" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M40" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N40" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O40" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P40" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q40" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R40" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" ht="41.4" spans="1:19">
       <c r="A41">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>43</v>
+      <c r="B41" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J41" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L41" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M41" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N41" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P41" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q41" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="R41" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" ht="41.4" spans="1:19">
       <c r="A42">
         <v>42</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>44</v>
+      <c r="B42" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L42" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M42" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N42" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O42" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P42" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q42" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="R42" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" ht="82.8" spans="1:19">
       <c r="A43">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>45</v>
+      <c r="B43" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L43" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M43" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N43" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P43" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q43" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R43" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" ht="96.6" spans="1:19">
       <c r="A44">
         <v>44</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>46</v>
+      <c r="B44" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H44" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K44" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L44" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M44" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N44" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P44" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q44" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R44" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" ht="55.2" spans="1:19">
       <c r="A45">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>138</v>
+      <c r="B45" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H45" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K45" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="N45" t="s">
-        <v>59</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>119</v>
+        <v>24</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="Q45" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R45" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" ht="96.6" spans="1:19">
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>47</v>
+      <c r="B46" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K46" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L46" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M46" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N46" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O46" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P46" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q46" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R46" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" ht="55.2" spans="1:19">
       <c r="A47">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>48</v>
+      <c r="B47" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H47" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K47" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L47" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M47" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N47" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O47" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P47" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q47" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R47" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" ht="55.2" spans="1:19">
       <c r="A48">
         <v>48</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>49</v>
+      <c r="B48" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H48" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J48" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L48" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M48" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N48" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O48" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P48" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q48" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R48" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" ht="41.4" spans="1:19">
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>140</v>
+      <c r="B49" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>93</v>
+        <v>125</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H49" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K49" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L49" t="s">
-        <v>59</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>119</v>
+        <v>24</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="N49" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P49" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>120</v>
+        <v>24</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="R49" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" ht="41.4" spans="1:19">
       <c r="A50">
         <v>50</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>50</v>
+      <c r="B50" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J50" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K50" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L50" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M50" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N50" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P50" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q50" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R50" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" ht="82.8" spans="1:19">
       <c r="A51">
         <v>51</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>142</v>
+      <c r="B51" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>93</v>
+        <v>129</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J51" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>56</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="N51" t="s">
-        <v>59</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>119</v>
+        <v>24</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="Q51" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R51" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="85.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" ht="82.8" spans="1:19">
       <c r="A52">
         <v>52</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>144</v>
+      <c r="B52" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>93</v>
+        <v>131</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H52" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>56</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K52" t="s">
-        <v>56</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="N52" t="s">
-        <v>59</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>119</v>
+        <v>24</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="P52" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q52" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R52" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" ht="41.4" spans="1:19">
       <c r="A53">
         <v>53</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>146</v>
+      <c r="B53" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>56</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K53" t="s">
-        <v>56</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="N53" t="s">
-        <v>59</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>119</v>
+        <v>24</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="P53" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q53" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R53" t="s">
-        <v>58</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" ht="55.2" spans="1:19">
       <c r="A54">
         <v>54</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>148</v>
+      <c r="B54" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K54" t="s">
-        <v>56</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="N54" t="s">
-        <v>59</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>119</v>
+        <v>24</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="Q54" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R54" t="s">
-        <v>58</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" ht="27.6" spans="1:19">
       <c r="A55">
         <v>55</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>51</v>
+      <c r="B55" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H55" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K55" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L55" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M55" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="N55" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O55" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P55" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q55" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R55" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" ht="55.2" spans="1:19">
       <c r="A56">
         <v>56</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>52</v>
+      <c r="B56" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J56" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L56" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M56" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N56" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P56" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q56" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R56" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" ht="27.6" spans="1:19">
       <c r="A57">
         <v>58</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>53</v>
+      <c r="B57" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K57" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M57" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N57" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O57" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P57" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q57" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="R57" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" ht="82.8" spans="1:19">
       <c r="A58">
         <v>59</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>54</v>
+      <c r="B58" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H58" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K58" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L58" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M58" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="N58" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O58" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P58" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="Q58" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="R58" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" ht="27.6" spans="1:19">
       <c r="A59">
         <v>60</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>55</v>
+      <c r="B59" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H59" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J59" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K59" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L59" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M59" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N59" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O59" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P59" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="Q59" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R59" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" ht="55.2" spans="1:19">
       <c r="A60">
         <v>61</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>150</v>
+      <c r="B60" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>93</v>
+        <v>147</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H60" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>56</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L60" t="s">
-        <v>59</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>119</v>
+        <v>24</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="N60" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>119</v>
+        <v>24</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="Q60" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R60" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" ht="55.2" spans="1:19">
       <c r="A61">
         <v>62</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>152</v>
+      <c r="B61" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>93</v>
+        <v>149</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H61" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K61" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L61" t="s">
-        <v>59</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>119</v>
+        <v>24</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="N61" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O61" t="s">
-        <v>59</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>119</v>
+        <v>24</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="Q61" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="R61" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="S61" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S43" xr:uid="{7F2A01E5-CCCE-4733-88B2-AB4AA2A85484}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S61">
+  <autoFilter ref="A1:S61">
+    <sortState ref="A1:S61">
       <sortCondition ref="A1:A43"/>
     </sortState>
+    <extLst/>
   </autoFilter>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>